--- a/tests/fixtures/reference-errors.xlsx
+++ b/tests/fixtures/reference-errors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="988" activeTab="4"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="988" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="!Main root" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='MainRoot'</t>
+    <t>!!ObjTables Type='Data' Id='MainRoot'</t>
   </si>
   <si>
     <t>!Identifier</t>
@@ -50,7 +50,7 @@
     <t>€</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Node'</t>
+    <t>!!ObjTables Type='Data' Id='Node'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -80,7 +80,7 @@
     <t>node_3</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='NodeFriend'</t>
+    <t>!!ObjTables Type='Data' Id='NodeFriend'</t>
   </si>
   <si>
     <t>!id</t>
@@ -107,7 +107,7 @@
     <t>mom</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Leaf'</t>
+    <t>!!ObjTables Type='Data' Id='Leaf'</t>
   </si>
   <si>
     <t>!Nodes</t>
@@ -176,7 +176,7 @@
     <t>inline_5_0, inline_5_1</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='OneToManyRow'</t>
+    <t>!!ObjTables Type='Data' Id='OneToManyRow'</t>
   </si>
   <si>
     <t>row_0_0</t>
@@ -220,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -240,6 +240,87 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -255,38 +336,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,84 +381,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,187 +411,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,74 +602,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,141 +634,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/tests/fixtures/reference-errors.xlsx
+++ b/tests/fixtures/reference-errors.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="988" visibility="visible" windowHeight="6840" windowWidth="20295"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20295" windowHeight="6840" tabRatio="988" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Main root" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,18 +14,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!One to many rows" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_FilterDatabase_0">'!Main root'!$A$2:$B$3</definedName>
-    <definedName localSheetId="0" name="_FilterDatabase_0_0">'!Main root'!$A$2:$B$3</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0">'!Nodes'!$A$2:$D$5</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0">'!Nodes'!$A$2:$D$5</definedName>
-    <definedName localSheetId="3" name="_FilterDatabase_0">'!Leaves'!$A$2:$F$8</definedName>
-    <definedName localSheetId="3" name="_FilterDatabase_0_0">'!Leaves'!$A$2:$F$8</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0">'!One to many rows'!$A$2:$A$14</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0">'!One to many rows'!$A$2:$A$14</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!Main root'!$A$2:$B$3</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Nodes'!$A$2:$D$6</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'!!Leaves'!$A$2:$F$8</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!One to many rows'!$A$2:$A$14</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'!Main root'!$A$2:$B$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'!Main root'!$A$2:$B$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">'!Nodes'!$A$2:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">'!Nodes'!$A$2:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">'!Leaves'!$A$2:$F$8</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">'!Leaves'!$A$2:$F$8</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">'!One to many rows'!$A$2:$A$14</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">'!One to many rows'!$A$2:$A$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Main root'!$A$2:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Nodes'!$A$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Leaves'!$A$2:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!One to many rows'!$A$2:$A$14</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -34,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -515,204 +515,204 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="8" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="23" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="31" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="41"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="42"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -980,33 +980,33 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="B3" pane="bottomRight" sqref="B3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" width="10.6"/>
+    <col width="10.6" customWidth="1" min="1" max="1025"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2">
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='MainRoot'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="3">
+          <t>!!ObjTables type='Data' id='MainRoot'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>!Identifier</t>
@@ -1032,8 +1032,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:B3"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1046,26 +1046,26 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="D3" pane="bottomRight" sqref="D3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" width="10.6"/>
+    <col width="10.6" customWidth="1" min="1" max="1025"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Node'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2">
+          <t>!!ObjTables type='Data' id='Node'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>node_0</t>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>node_1</t>
@@ -1123,7 +1123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>node_2</t>
@@ -1161,8 +1161,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:D6"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1180,13 +1180,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" width="10.6"/>
+    <col width="10.6" customWidth="1" min="1" max="1025"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='NodeFriend'</t>
+          <t>!!ObjTables type='Data' id='NodeFriend'</t>
         </is>
       </c>
     </row>
@@ -1242,8 +1242,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1256,28 +1256,28 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F3" pane="bottomRight" sqref="F3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col customWidth="1" max="5" min="1" width="10.6"/>
-    <col customWidth="1" max="6" min="6" width="24.425"/>
-    <col customWidth="1" max="1025" min="7" width="10.6"/>
+    <col width="10.6" customWidth="1" min="1" max="5"/>
+    <col width="24.425" customWidth="1" min="6" max="6"/>
+    <col width="10.6" customWidth="1" min="7" max="1025"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Leaf'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2">
+          <t>!!ObjTables type='Data' id='Leaf'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>leaf_0_0</t>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>leaf_0_1</t>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>leaf_1_0</t>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>leaf_1_1</t>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>leaf_2_0</t>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>leaf_2_1</t>
@@ -1479,8 +1479,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:F8"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1493,110 +1493,110 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F29" pane="bottomRight" sqref="F29"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" width="10.6"/>
+    <col width="10.6" customWidth="1" min="1" max="1025"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='OneToManyRow'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2">
+          <t>!!ObjTables type='Data' id='OneToManyRow'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>!Id</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>row_0_0</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>row_0_1</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>row_1_0</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>row_1_1</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>row_2_0</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>row_2_1</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>row_3_0</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>row_3_1</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="11">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>row_4_0</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>row_4_1</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="13">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>row_5_0</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="14">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>row_5_1</t>
@@ -1605,7 +1605,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:A14"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/fixtures/reference-errors.xlsx
+++ b/tests/fixtures/reference-errors.xlsx
@@ -1002,7 +1002,7 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='MainRoot'</t>
+          <t>!!ObjTables type='Data' class='MainRoot'</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Node'</t>
+          <t>!!ObjTables type='Data' class='Node'</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='NodeFriend'</t>
+          <t>!!ObjTables type='Data' class='NodeFriend'</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Leaf'</t>
+          <t>!!ObjTables type='Data' class='Leaf'</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='OneToManyRow'</t>
+          <t>!!ObjTables type='Data' class='OneToManyRow'</t>
         </is>
       </c>
     </row>
